--- a/proj_wikipedia/records_athletics/outputs/tables/records_athletics_table_main.xlsx
+++ b/proj_wikipedia/records_athletics/outputs/tables/records_athletics_table_main.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="500">
   <si>
     <t>Event</t>
   </si>
@@ -266,7 +266,7 @@
     <t>8:20.68</t>
   </si>
   <si>
-    <t>14:20.87</t>
+    <t>14:18.37</t>
   </si>
   <si>
     <t>29:32.53</t>
@@ -572,7 +572,7 @@
     <t>9 May 2014</t>
   </si>
   <si>
-    <t>29 July 2011</t>
+    <t>8 June 2017</t>
   </si>
   <si>
     <t>12 August 2016</t>
@@ -722,7 +722,7 @@
     <t>Qatar Athletic Super Grand Prix</t>
   </si>
   <si>
-    <t>DN Galan</t>
+    <t>Golden Gala</t>
   </si>
   <si>
     <t>Prague Half Marathon</t>
@@ -827,45 +827,48 @@
     <t>Doha, Qatar</t>
   </si>
   <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic</t>
+  </si>
+  <si>
+    <t>Borgholzhausen, Germany</t>
+  </si>
+  <si>
+    <t>Mengerskirchen, Germany</t>
+  </si>
+  <si>
+    <t>Warstein, Germany</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Budapest, Hungary</t>
+  </si>
+  <si>
     <t>Stockholm, Sweden</t>
   </si>
   <si>
-    <t>Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
-    <t>Prague, Czech Republic</t>
-  </si>
-  <si>
-    <t>Borgholzhausen, Germany</t>
-  </si>
-  <si>
-    <t>Mengerskirchen, Germany</t>
-  </si>
-  <si>
-    <t>Warstein, Germany</t>
-  </si>
-  <si>
-    <t>State College, United States</t>
-  </si>
-  <si>
-    <t>Allston, United States</t>
-  </si>
-  <si>
-    <t>Kent, United States</t>
-  </si>
-  <si>
-    <t>Liévin, France</t>
-  </si>
-  <si>
-    <t>Albuquerque, United States</t>
-  </si>
-  <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Budapest, Hungary</t>
-  </si>
-  <si>
     <t>Ghent, Belgium</t>
   </si>
   <si>
@@ -1094,45 +1097,48 @@
     <t>Doha</t>
   </si>
   <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Borgholzhausen</t>
+  </si>
+  <si>
+    <t>Mengerskirchen</t>
+  </si>
+  <si>
+    <t>Warstein</t>
+  </si>
+  <si>
+    <t>State College</t>
+  </si>
+  <si>
+    <t>Allston</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Liévin</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
     <t>Stockholm</t>
   </si>
   <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Prague</t>
-  </si>
-  <si>
-    <t>Borgholzhausen</t>
-  </si>
-  <si>
-    <t>Mengerskirchen</t>
-  </si>
-  <si>
-    <t>Warstein</t>
-  </si>
-  <si>
-    <t>State College</t>
-  </si>
-  <si>
-    <t>Allston</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>Liévin</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
     <t>Ghent</t>
   </si>
   <si>
@@ -1199,15 +1205,15 @@
     <t>Qatar</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -1496,13 +1502,13 @@
     <t>QAT</t>
   </si>
   <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
     <t>SWE</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>CZE</t>
   </si>
   <si>
     <t>TUR</t>
@@ -1651,19 +1657,19 @@
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L2" t="n" s="2">
         <v>42196.0</v>
@@ -1678,28 +1684,28 @@
         <v>11.0</v>
       </c>
       <c r="P2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="R2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="S2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U2" t="n">
         <v>100.0</v>
       </c>
       <c r="V2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3">
@@ -1722,19 +1728,19 @@
         <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n" s="2">
         <v>42112.0</v>
@@ -1749,28 +1755,28 @@
         <v>18.0</v>
       </c>
       <c r="P3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U3" t="n">
         <v>200.0</v>
       </c>
       <c r="V3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4">
@@ -1793,19 +1799,19 @@
         <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n" s="2">
         <v>33819.0</v>
@@ -1820,28 +1826,28 @@
         <v>3.0</v>
       </c>
       <c r="P4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="R4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U4" t="n">
         <v>400.0</v>
       </c>
       <c r="V4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5">
@@ -1864,19 +1870,19 @@
         <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L5" t="n" s="2">
         <v>42623.0</v>
@@ -1891,28 +1897,28 @@
         <v>10.0</v>
       </c>
       <c r="P5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U5" t="n">
         <v>500.0</v>
       </c>
       <c r="V5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
@@ -1935,19 +1941,19 @@
         <v>249</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n" s="2">
         <v>42526.0</v>
@@ -1962,28 +1968,28 @@
         <v>5.0</v>
       </c>
       <c r="P6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U6" t="n">
         <v>600.0</v>
       </c>
       <c r="V6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7">
@@ -2006,19 +2012,19 @@
         <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L7" t="n" s="2">
         <v>41130.0</v>
@@ -2033,28 +2039,28 @@
         <v>9.0</v>
       </c>
       <c r="P7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U7" t="n">
         <v>800.0</v>
       </c>
       <c r="V7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8">
@@ -2080,16 +2086,16 @@
         <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L8" t="n" s="2">
         <v>36408.0</v>
@@ -2104,28 +2110,28 @@
         <v>5.0</v>
       </c>
       <c r="P8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="S8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U8" t="n">
         <v>1000.0</v>
       </c>
       <c r="V8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9">
@@ -2148,19 +2154,19 @@
         <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" t="n" s="2">
         <v>37127.0</v>
@@ -2175,28 +2181,28 @@
         <v>24.0</v>
       </c>
       <c r="P9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U9" t="n">
         <v>1500.0</v>
       </c>
       <c r="V9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10">
@@ -2222,16 +2228,16 @@
         <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L10" t="n" s="2">
         <v>36008.0</v>
@@ -2246,28 +2252,28 @@
         <v>1.0</v>
       </c>
       <c r="P10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="S10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="T10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U10" t="n">
         <v>2000.0</v>
       </c>
       <c r="V10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
@@ -2293,16 +2299,16 @@
         <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L11" t="n" s="2">
         <v>35309.0</v>
@@ -2317,28 +2323,28 @@
         <v>1.0</v>
       </c>
       <c r="P11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U11" t="n">
         <v>3000.0</v>
       </c>
       <c r="V11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12">
@@ -2364,16 +2370,16 @@
         <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L12" t="n" s="2">
         <v>35664.0</v>
@@ -2388,28 +2394,28 @@
         <v>22.0</v>
       </c>
       <c r="P12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S12" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U12" t="n">
         <v>5000.0</v>
       </c>
       <c r="V12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W12" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13">
@@ -2435,16 +2441,16 @@
         <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L13" t="n" s="2">
         <v>36611.0</v>
@@ -2459,28 +2465,28 @@
         <v>26.0</v>
       </c>
       <c r="P13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="T13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U13" t="n">
         <v>5000.0</v>
       </c>
       <c r="V13" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14">
@@ -2503,19 +2509,19 @@
         <v>255</v>
       </c>
       <c r="G14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14" t="n" s="2">
         <v>41363.0</v>
@@ -2530,28 +2536,28 @@
         <v>30.0</v>
       </c>
       <c r="P14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T14" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U14" t="n">
         <v>8000.0</v>
       </c>
       <c r="V14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W14" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
@@ -2574,19 +2580,19 @@
         <v>252</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L15" t="n" s="2">
         <v>35664.0</v>
@@ -2601,28 +2607,28 @@
         <v>22.0</v>
       </c>
       <c r="P15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="S15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="T15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U15" t="n">
         <v>10000.0</v>
       </c>
       <c r="V15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W15" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16">
@@ -2645,19 +2651,19 @@
         <v>256</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L16" t="n" s="2">
         <v>40447.0</v>
@@ -2672,28 +2678,28 @@
         <v>26.0</v>
       </c>
       <c r="P16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="S16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U16" t="n">
         <v>10000.0</v>
       </c>
       <c r="V16" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W16" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17">
@@ -2716,19 +2722,19 @@
         <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L17" t="n" s="2">
         <v>40503.0</v>
@@ -2743,28 +2749,28 @@
         <v>21.0</v>
       </c>
       <c r="P17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q17" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="S17" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T17" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U17" t="n">
         <v>15000.0</v>
       </c>
       <c r="V17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18">
@@ -2790,16 +2796,16 @@
         <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L18" t="n" s="2">
         <v>38998.0</v>
@@ -2814,28 +2820,28 @@
         <v>8.0</v>
       </c>
       <c r="P18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q18" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R18" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S18" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="T18" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U18" t="n">
         <v>20000.0</v>
       </c>
       <c r="V18" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19">
@@ -2861,13 +2867,13 @@
         <v>219</v>
       </c>
       <c r="H19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K19" t="s">
         <v>45</v>
@@ -2885,16 +2891,16 @@
         <v>17.0</v>
       </c>
       <c r="P19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="S19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="T19" t="s">
         <v>40</v>
@@ -2903,10 +2909,10 @@
         <v>21000.0</v>
       </c>
       <c r="V19" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W19" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20">
@@ -2929,19 +2935,19 @@
         <v>260</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L20" t="n" s="2">
         <v>40697.0</v>
@@ -2956,28 +2962,28 @@
         <v>3.0</v>
       </c>
       <c r="P20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R20" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="S20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="U20" t="n">
         <v>25000.0</v>
       </c>
       <c r="V20" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21">
@@ -3000,19 +3006,19 @@
         <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L21" t="n" s="2">
         <v>41035.0</v>
@@ -3027,28 +3033,28 @@
         <v>6.0</v>
       </c>
       <c r="P21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="S21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U21" t="n">
         <v>25000.0</v>
       </c>
       <c r="V21" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22">
@@ -3071,19 +3077,19 @@
         <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L22" t="n" s="2">
         <v>40697.0</v>
@@ -3098,28 +3104,28 @@
         <v>3.0</v>
       </c>
       <c r="P22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R22" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="S22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="U22" t="n">
         <v>30000.0</v>
       </c>
       <c r="V22" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
@@ -3142,19 +3148,19 @@
         <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L23" t="n" s="2">
         <v>42484.0</v>
@@ -3169,28 +3175,28 @@
         <v>24.0</v>
       </c>
       <c r="P23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="S23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="T23" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U23" t="n">
         <v>30000.0</v>
       </c>
       <c r="V23" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W23" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24">
@@ -3213,19 +3219,19 @@
         <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L24" t="n" s="2">
         <v>42484.0</v>
@@ -3240,28 +3246,28 @@
         <v>24.0</v>
       </c>
       <c r="P24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="S24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="T24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U24" t="n">
         <v>30000.0</v>
       </c>
       <c r="V24" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W24" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25">
@@ -3284,16 +3290,16 @@
         <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
@@ -3311,16 +3317,16 @@
         <v>28.0</v>
       </c>
       <c r="P25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q25" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R25" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="S25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T25" t="s">
         <v>45</v>
@@ -3329,10 +3335,10 @@
         <v>42000.0</v>
       </c>
       <c r="V25" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26">
@@ -3355,16 +3361,16 @@
         <v>263</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K26" t="s">
         <v>45</v>
@@ -3382,16 +3388,16 @@
         <v>6.0</v>
       </c>
       <c r="P26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="S26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="T26" t="s">
         <v>45</v>
@@ -3400,10 +3406,10 @@
         <v>42000.0</v>
       </c>
       <c r="V26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27">
@@ -3426,19 +3432,19 @@
         <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L27" t="n" s="2">
         <v>42261.0</v>
@@ -3453,28 +3459,28 @@
         <v>14.0</v>
       </c>
       <c r="P27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q27" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R27" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="S27" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="T27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U27" t="n">
         <v>100.0</v>
       </c>
       <c r="V27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28">
@@ -3500,16 +3506,16 @@
         <v>219</v>
       </c>
       <c r="H28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L28" t="n" s="2">
         <v>30902.0</v>
@@ -3524,28 +3530,28 @@
         <v>8.0</v>
       </c>
       <c r="P28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="S28" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U28" t="n">
         <v>200.0</v>
       </c>
       <c r="V28" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W28" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29">
@@ -3568,19 +3574,19 @@
         <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L29" t="n" s="2">
         <v>42195.0</v>
@@ -3595,28 +3601,28 @@
         <v>10.0</v>
       </c>
       <c r="P29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q29" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="R29" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S29" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="T29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U29" t="n">
         <v>200.0</v>
       </c>
       <c r="V29" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W29" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30">
@@ -3639,19 +3645,19 @@
         <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L30" t="n" s="2">
         <v>42196.0</v>
@@ -3666,28 +3672,28 @@
         <v>11.0</v>
       </c>
       <c r="P30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="R30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S30" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="T30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U30" t="n">
         <v>400.0</v>
       </c>
       <c r="V30" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W30" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31">
@@ -3710,19 +3716,19 @@
         <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L31" t="n" s="2">
         <v>42240.0</v>
@@ -3737,28 +3743,28 @@
         <v>24.0</v>
       </c>
       <c r="P31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q31" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="T31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U31" t="n">
         <v>400.0</v>
       </c>
       <c r="V31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32">
@@ -3781,19 +3787,19 @@
         <v>267</v>
       </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L32" t="n" s="2">
         <v>41095.0</v>
@@ -3808,28 +3814,28 @@
         <v>5.0</v>
       </c>
       <c r="P32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q32" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R32" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="S32" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U32" t="n">
         <v>600.0</v>
       </c>
       <c r="V32" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W32" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33">
@@ -3855,16 +3861,16 @@
         <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L33" t="n" s="2">
         <v>39689.0</v>
@@ -3879,28 +3885,28 @@
         <v>29.0</v>
       </c>
       <c r="P33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q33" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R33" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="S33" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U33" t="n">
         <v>800.0</v>
       </c>
       <c r="V33" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W33" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34">
@@ -3926,16 +3932,16 @@
         <v>219</v>
       </c>
       <c r="H34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L34" t="n" s="2">
         <v>37081.0</v>
@@ -3950,28 +3956,28 @@
         <v>9.0</v>
       </c>
       <c r="P34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q34" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R34" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="S34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="T34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U34" t="n">
         <v>1000.0</v>
       </c>
       <c r="V34" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W34" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35">
@@ -3994,19 +4000,19 @@
         <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L35" t="n" s="2">
         <v>42518.0</v>
@@ -4021,28 +4027,28 @@
         <v>28.0</v>
       </c>
       <c r="P35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q35" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R35" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="S35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="T35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U35" t="n">
         <v>1500.0</v>
       </c>
       <c r="V35" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W35" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36">
@@ -4068,16 +4074,16 @@
         <v>219</v>
       </c>
       <c r="H36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="n" s="2">
         <v>39971.0</v>
@@ -4092,28 +4098,28 @@
         <v>7.0</v>
       </c>
       <c r="P36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q36" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="T36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U36" t="n">
         <v>2000.0</v>
       </c>
       <c r="V36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W36" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37">
@@ -4136,19 +4142,19 @@
         <v>270</v>
       </c>
       <c r="G37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L37" t="n" s="2">
         <v>41768.0</v>
@@ -4163,28 +4169,28 @@
         <v>9.0</v>
       </c>
       <c r="P37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q37" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="S37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="T37" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U37" t="n">
         <v>3000.0</v>
       </c>
       <c r="V37" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W37" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38">
@@ -4195,7 +4201,7 @@
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
         <v>186</v>
@@ -4207,55 +4213,55 @@
         <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L38" t="n" s="2">
-        <v>40753.0</v>
+        <v>42894.0</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N38" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="O38" t="n">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="P38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q38" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="R38" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="S38" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="T38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U38" t="n">
         <v>5000.0</v>
       </c>
       <c r="V38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W38" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39">
@@ -4278,19 +4284,19 @@
         <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L39" t="n" s="2">
         <v>42594.0</v>
@@ -4305,28 +4311,28 @@
         <v>12.0</v>
       </c>
       <c r="P39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R39" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S39" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="T39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U39" t="n">
         <v>10000.0</v>
       </c>
       <c r="V39" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W39" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40">
@@ -4349,19 +4355,19 @@
         <v>273</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L40" t="n" s="2">
         <v>42826.0</v>
@@ -4376,28 +4382,28 @@
         <v>1.0</v>
       </c>
       <c r="P40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R40" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S40" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T40" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U40" t="n">
         <v>10000.0</v>
       </c>
       <c r="V40" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W40" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41">
@@ -4420,19 +4426,19 @@
         <v>273</v>
       </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L41" t="n" s="2">
         <v>42826.0</v>
@@ -4447,28 +4453,28 @@
         <v>1.0</v>
       </c>
       <c r="P41" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q41" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R41" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S41" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T41" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U41" t="n">
         <v>15000.0</v>
       </c>
       <c r="V41" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W41" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42">
@@ -4494,16 +4500,16 @@
         <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L42" t="n" s="2">
         <v>36772.0</v>
@@ -4518,28 +4524,28 @@
         <v>3.0</v>
       </c>
       <c r="P42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q42" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R42" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S42" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T42" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="U42" t="n">
         <v>20000.0</v>
       </c>
       <c r="V42" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W42" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43">
@@ -4562,19 +4568,19 @@
         <v>273</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L43" t="n" s="2">
         <v>42826.0</v>
@@ -4589,28 +4595,28 @@
         <v>1.0</v>
       </c>
       <c r="P43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R43" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S43" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T43" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U43" t="n">
         <v>20000.0</v>
       </c>
       <c r="V43" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W43" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44">
@@ -4633,16 +4639,16 @@
         <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s">
         <v>45</v>
@@ -4660,16 +4666,16 @@
         <v>1.0</v>
       </c>
       <c r="P44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R44" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S44" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T44" t="s">
         <v>40</v>
@@ -4678,10 +4684,10 @@
         <v>21000.0</v>
       </c>
       <c r="V44" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W44" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45">
@@ -4707,16 +4713,16 @@
         <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J45" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L45" t="n" s="2">
         <v>37520.0</v>
@@ -4731,28 +4737,28 @@
         <v>21.0</v>
       </c>
       <c r="P45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q45" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R45" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S45" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T45" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="U45" t="n">
         <v>25000.0</v>
       </c>
       <c r="V45" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W45" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46">
@@ -4775,19 +4781,19 @@
         <v>250</v>
       </c>
       <c r="G46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L46" t="n" s="2">
         <v>42848.0</v>
@@ -4802,28 +4808,28 @@
         <v>23.0</v>
       </c>
       <c r="P46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q46" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R46" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="S46" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="T46" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U46" t="n">
         <v>25000.0</v>
       </c>
       <c r="V46" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W46" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47">
@@ -4849,16 +4855,16 @@
         <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L47" t="n" s="2">
         <v>37778.0</v>
@@ -4873,28 +4879,28 @@
         <v>6.0</v>
       </c>
       <c r="P47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q47" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R47" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S47" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T47" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="U47" t="n">
         <v>30000.0</v>
       </c>
       <c r="V47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W47" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48">
@@ -4917,19 +4923,19 @@
         <v>250</v>
       </c>
       <c r="G48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" t="n" s="2">
         <v>42848.0</v>
@@ -4944,28 +4950,28 @@
         <v>23.0</v>
       </c>
       <c r="P48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q48" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="S48" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="T48" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U48" t="n">
         <v>30000.0</v>
       </c>
       <c r="V48" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W48" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49">
@@ -4988,16 +4994,16 @@
         <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
         <v>45</v>
@@ -5015,16 +5021,16 @@
         <v>23.0</v>
       </c>
       <c r="P49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q49" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R49" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="S49" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="T49" t="s">
         <v>45</v>
@@ -5033,10 +5039,10 @@
         <v>42000.0</v>
       </c>
       <c r="V49" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W49" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50">
@@ -5062,16 +5068,16 @@
         <v>219</v>
       </c>
       <c r="H50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L50" t="n" s="2">
         <v>38380.0</v>
@@ -5086,28 +5092,28 @@
         <v>28.0</v>
       </c>
       <c r="P50" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R50" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="S50" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="T50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U50" t="n">
         <v>60.0</v>
       </c>
       <c r="V50" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W50" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51">
@@ -5133,16 +5139,16 @@
         <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L51" t="n" s="2">
         <v>38052.0</v>
@@ -5157,28 +5163,28 @@
         <v>6.0</v>
       </c>
       <c r="P51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q51" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R51" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="S51" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="T51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U51" t="n">
         <v>200.0</v>
       </c>
       <c r="V51" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W51" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52">
@@ -5201,19 +5207,19 @@
         <v>279</v>
       </c>
       <c r="G52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L52" t="n" s="2">
         <v>41615.0</v>
@@ -5228,28 +5234,28 @@
         <v>7.0</v>
       </c>
       <c r="P52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R52" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S52" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U52" t="n">
         <v>300.0</v>
       </c>
       <c r="V52" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W52" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53">
@@ -5275,16 +5281,16 @@
         <v>219</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J53" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L53" t="n" s="2">
         <v>34749.0</v>
@@ -5299,28 +5305,28 @@
         <v>19.0</v>
       </c>
       <c r="P53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q53" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R53" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="S53" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="T53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U53" t="n">
         <v>400.0</v>
       </c>
       <c r="V53" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W53" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54">
@@ -5343,19 +5349,19 @@
         <v>281</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L54" t="n" s="2">
         <v>42755.0</v>
@@ -5370,28 +5376,28 @@
         <v>20.0</v>
       </c>
       <c r="P54" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q54" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R54" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="S54" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="T54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U54" t="n">
         <v>600.0</v>
       </c>
       <c r="V54" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W54" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55">
@@ -5417,16 +5423,16 @@
         <v>219</v>
       </c>
       <c r="H55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L55" t="n" s="2">
         <v>38017.0</v>
@@ -5441,28 +5447,28 @@
         <v>31.0</v>
       </c>
       <c r="P55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q55" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R55" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="S55" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="T55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U55" t="n">
         <v>800.0</v>
       </c>
       <c r="V55" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W55" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
@@ -5488,16 +5494,16 @@
         <v>219</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L56" t="n" s="2">
         <v>36562.0</v>
@@ -5512,28 +5518,28 @@
         <v>6.0</v>
       </c>
       <c r="P56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q56" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R56" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="S56" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="T56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U56" t="n">
         <v>1000.0</v>
       </c>
       <c r="V56" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W56" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
@@ -5559,16 +5565,16 @@
         <v>219</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L57" t="n" s="2">
         <v>35827.0</v>
@@ -5583,28 +5589,28 @@
         <v>1.0</v>
       </c>
       <c r="P57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q57" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R57" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="S57" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="T57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U57" t="n">
         <v>1500.0</v>
       </c>
       <c r="V57" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W57" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
@@ -5630,16 +5636,16 @@
         <v>219</v>
       </c>
       <c r="H58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L58" t="n" s="2">
         <v>35832.0</v>
@@ -5654,28 +5660,28 @@
         <v>6.0</v>
       </c>
       <c r="P58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q58" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R58" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S58" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U58" t="n">
         <v>3000.0</v>
       </c>
       <c r="V58" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W58" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59">
@@ -5695,22 +5701,22 @@
         <v>242</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G59" t="s">
         <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L59" t="n" s="2">
         <v>35845.0</v>
@@ -5725,28 +5731,28 @@
         <v>19.0</v>
       </c>
       <c r="P59" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="Q59" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="R59" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S59" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U59" t="n">
         <v>5000.0</v>
       </c>
       <c r="V59" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W59" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
@@ -5766,22 +5772,22 @@
         <v>243</v>
       </c>
       <c r="F60" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G60" t="s">
         <v>219</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I60" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L60" t="n" s="2">
         <v>37297.0</v>
@@ -5796,28 +5802,28 @@
         <v>10.0</v>
       </c>
       <c r="P60" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q60" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R60" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="S60" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T60" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U60" t="n">
         <v>10000.0</v>
       </c>
       <c r="V60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61">
@@ -5837,22 +5843,22 @@
         <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
         <v>219</v>
       </c>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L61" t="n" s="2">
         <v>40923.0</v>
@@ -5867,28 +5873,28 @@
         <v>15.0</v>
       </c>
       <c r="P61" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q61" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R61" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="S61" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="T61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U61" t="n">
         <v>60.0</v>
       </c>
       <c r="V61" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W61" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62">
@@ -5908,22 +5914,22 @@
         <v>232</v>
       </c>
       <c r="F62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G62" t="s">
         <v>219</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L62" t="n" s="2">
         <v>31842.0</v>
@@ -5938,28 +5944,28 @@
         <v>6.0</v>
       </c>
       <c r="P62" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q62" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S62" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T62" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U62" t="n">
         <v>200.0</v>
       </c>
       <c r="V62" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W62" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63">
@@ -5979,22 +5985,22 @@
         <v>219</v>
       </c>
       <c r="F63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G63" t="s">
         <v>219</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L63" t="n" s="2">
         <v>30751.0</v>
@@ -6009,28 +6015,28 @@
         <v>10.0</v>
       </c>
       <c r="P63" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q63" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R63" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="S63" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U63" t="n">
         <v>400.0</v>
       </c>
       <c r="V63" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W63" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64">
@@ -6050,22 +6056,22 @@
         <v>219</v>
       </c>
       <c r="F64" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G64" t="s">
         <v>219</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J64" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L64" t="n" s="2">
         <v>30744.0</v>
@@ -6080,28 +6086,28 @@
         <v>3.0</v>
       </c>
       <c r="P64" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q64" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R64" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="S64" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T64" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U64" t="n">
         <v>400.0</v>
       </c>
       <c r="V64" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W64" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65">
@@ -6121,22 +6127,22 @@
         <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K65" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L65" t="n" s="2">
         <v>40979.0</v>
@@ -6151,28 +6157,28 @@
         <v>11.0</v>
       </c>
       <c r="P65" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q65" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R65" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="S65" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T65" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U65" t="n">
         <v>800.0</v>
       </c>
       <c r="V65" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W65" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66">
@@ -6192,22 +6198,22 @@
         <v>242</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L66" t="n" s="2">
         <v>40596.0</v>
@@ -6222,28 +6228,28 @@
         <v>22.0</v>
       </c>
       <c r="P66" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="Q66" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="R66" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="S66" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U66" t="n">
         <v>1500.0</v>
       </c>
       <c r="V66" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W66" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67">
@@ -6263,22 +6269,22 @@
         <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H67" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L67" t="n" s="2">
         <v>42784.0</v>
@@ -6293,28 +6299,28 @@
         <v>18.0</v>
       </c>
       <c r="P67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q67" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R67" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="S67" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="T67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U67" t="n">
         <v>3000.0</v>
       </c>
       <c r="V67" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W67" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68">
@@ -6334,22 +6340,22 @@
         <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G68" t="s">
         <v>219</v>
       </c>
       <c r="H68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L68" t="n" s="2">
         <v>36204.0</v>
@@ -6364,28 +6370,28 @@
         <v>13.0</v>
       </c>
       <c r="P68" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q68" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R68" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S68" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U68" t="n">
         <v>5000.0</v>
       </c>
       <c r="V68" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W68" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
